--- a/docs/timesheet_ilona_zancaner.xlsx
+++ b/docs/timesheet_ilona_zancaner.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\wdad4.local\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\dotnet\wdad4.local\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Student</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Styletile 1</t>
   </si>
   <si>
-    <t>Styletile 2+3</t>
-  </si>
-  <si>
     <t>Visual designs frontend mobile</t>
   </si>
   <si>
@@ -102,6 +99,21 @@
   </si>
   <si>
     <t>Productiedossier afwerken</t>
+  </si>
+  <si>
+    <t>Styletile 2, 3, final</t>
+  </si>
+  <si>
+    <t>Wireframes backoffice desktop</t>
+  </si>
+  <si>
+    <t>Visual designs backoffice desktop</t>
+  </si>
+  <si>
+    <t>Kleine aanpassing visual designs frontend</t>
+  </si>
+  <si>
+    <t>Laatste aanpassing productiedossier</t>
   </si>
 </sst>
 </file>
@@ -532,7 +544,7 @@
   <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -664,11 +676,11 @@
         <v>42658</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3">
-        <f>(10+25)/60</f>
-        <v>0.58333333333333337</v>
+        <f>(10+25+10)/60</f>
+        <v>0.75</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>15</v>
@@ -700,7 +712,7 @@
         <v>42659</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3">
         <f>(60+55+60+10)/60</f>
@@ -712,7 +724,7 @@
         <v>42659</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
@@ -723,7 +735,7 @@
         <v>42660</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3">
         <f>55/60</f>
@@ -732,10 +744,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>42659</v>
+        <v>42660</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3">
         <f>(60+55)/60</f>
@@ -744,10 +756,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>42659</v>
+        <v>42660</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3">
         <f>45/60</f>
@@ -756,10 +768,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>42659</v>
+        <v>42660</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3">
         <f>(60+10)/60</f>
@@ -767,42 +779,76 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="9">
         <v>42660</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" t="s">
         <v>9</v>
       </c>
+      <c r="C17" s="3">
+        <f>(60+35)/60</f>
+        <v>1.5833333333333333</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="9">
         <v>42660</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="4">
-        <f>SUM(C3:C18)</f>
-        <v>16.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="8"/>
+      <c r="C18" s="3">
+        <f>(50+60+10)/60</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>42661</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3">
+        <f>(60+50)/60</f>
+        <v>1.8333333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42661</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="3">
+        <f>20/60</f>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="1">
+        <v>42661</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="3">
+        <f>20/60</f>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="1">
+        <v>42661</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="3">
+        <f>(10+25+5)/60</f>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -820,11 +866,17 @@
       <c r="A26" s="1"/>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="4">
+        <f>SUM(C3:C26)</f>
+        <v>23.166666666666661</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="8"/>
     </row>
